--- a/DataStructure_HW/HW1/hw1_diagram.xlsx
+++ b/DataStructure_HW/HW1/hw1_diagram.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D8BBE90-D549-4F83-A096-09AEFE7715E0}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywt01\Documents\codes\nccu_cs_hw\DataStructure_HW\HW1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A78FF-0980-4D6C-80B0-C3D2C692CE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,12 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>merge</t>
+  </si>
   <si>
     <t>lomuto</t>
   </si>
   <si>
-    <t>merge</t>
+    <t>hoare</t>
+  </si>
+  <si>
+    <t>dutch flag</t>
+  </si>
+  <si>
+    <t>heap sort</t>
   </si>
   <si>
     <t>k=10</t>
@@ -96,12 +108,24 @@
   <si>
     <t>k=30</t>
   </si>
+  <si>
+    <t>陣列大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lomuto-v1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,16 +146,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,18 +206,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="輸出" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -165,8 +257,5275 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>圖三</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>. lomuto </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>在陣列大小</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>2^10 ~2^25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>時的趨勢線</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lomuto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>趨勢線</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11115245430524488"/>
+                  <c:y val="-8.9018789869809323E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7609999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9160000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8722999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7524000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24647E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6442599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.121529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.435054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.61503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1674499999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.277100000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1503.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6038.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31E6-4798-BD12-E51DB062E40D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2030466408"/>
+        <c:axId val="56607367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2030466408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56607367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="56607367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2030466408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>圖一</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>. 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>種排序演算法對不同大小隨機陣列 之排序時間圖</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17414435783474227"/>
+          <c:y val="2.1301231278258375E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.2355000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9172E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0090000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1847999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31778E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6204000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3917E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10524600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21016799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.429091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89975700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.91465</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8794200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6566999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.806899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.567500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.224400000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>273.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>608.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1081.054545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8C8-4CC6-8C3B-916D07FB587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lomuto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:marker>
+              <c:symbol val="star"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F44B-418D-85A0-82376BF37EF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:marker>
+              <c:symbol val="star"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F44B-418D-85A0-82376BF37EF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:marker>
+              <c:symbol val="star"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F44B-418D-85A0-82376BF37EF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F44B-418D-85A0-82376BF37EF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$D$3:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7609999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9160000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8722999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7524000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24647E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6442599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.121529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.435054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.61503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1674499999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.277100000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375.71699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1503.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6038.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9006.3014469859245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29383.508545900415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95865.165023534413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>312764.89159330481</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1020411.0887344347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D8C8-4CC6-8C3B-916D07FB587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hoare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.2969999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9080000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6539999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6562E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5190999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1132000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2324399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4629100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9407600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9167900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20045099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88911499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8176299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1291100000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.5076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.639600000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.554199999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>218.34899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.66500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D8C8-4CC6-8C3B-916D07FB587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dutch flag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.252E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4840000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0693999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8375000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9931999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3419499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6401399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1148899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19844300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.405499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81850500000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6917800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5154299999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0565100000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.5443</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.077400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.368299999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228.428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D8C8-4CC6-8C3B-916D07FB587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heap sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.8069999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.675E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9289000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3730000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7828999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8447399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8865400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1376000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.172288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36693199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74336599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6293599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.23672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.2294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.908600000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>594.34299999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1222.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-D8C8-4CC6-8C3B-916D07FB587F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="643600728"/>
+        <c:axId val="558643575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="643600728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>陣列大小</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="558643575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="558643575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>所需時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>單位 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> 秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643600728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>圖二</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>局部放大圖</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>merge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.2355000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9172E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0090000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1847999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.31778E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6204000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3917E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10524600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21016799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.429091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89975700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.91465</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8794200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6566999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.806899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.567500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.224400000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>273.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>608.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1081.054545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-353C-4039-A0EE-7C442B1C6115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hoare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.2969999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9080000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6539999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6562E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5190999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1132000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2324399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4629100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9407600000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9167900000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20045099999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88911499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.88283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8176299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1291100000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.5076</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.639600000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.554199999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>218.34899999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>372.66500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-353C-4039-A0EE-7C442B1C6115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dutch flag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$F$3:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.252E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9649999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4840000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0693999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8375000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9931999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3419499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6401399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1148899999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19844300000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.405499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81850500000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6917800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5154299999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0565100000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.5443</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.077400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.368299999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228.428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-353C-4039-A0EE-7C442B1C6115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heap sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-353C-4039-A0EE-7C442B1C6115}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$G$3:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.8069999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.675E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9289000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3730000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7828999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8447399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8865400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1376000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.172288</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36693199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74336599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6293599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.23672</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.2294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.0047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.908600000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>285.327</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>594.34299999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1222.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-353C-4039-A0EE-7C442B1C6115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="706464223"/>
+        <c:axId val="706464639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="706464223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706464639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="706464639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706464223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="41275" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1265677</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747BD999-F70E-4240-B599-E38A27A8A121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>592421</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>89389</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="群組 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A692B74-0FF5-41CC-A3E3-9D3372FB2322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6908006" y="1132743"/>
+          <a:ext cx="6724140" cy="6995746"/>
+          <a:chOff x="6908006" y="1132743"/>
+          <a:chExt cx="6724140" cy="6995746"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="圖表 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8897F225-AB6D-4783-AF23-25FB687021C7}"/>
+              </a:ext>
+              <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+                <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{747BD999-F70E-4240-B599-E38A27A8A121}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="6908006" y="1132743"/>
+          <a:ext cx="6724140" cy="3616397"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="群組 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8721B763-D394-4915-A41C-D573FD813435}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7469750" y="4093404"/>
+            <a:ext cx="6122699" cy="4035085"/>
+            <a:chOff x="7469750" y="4093404"/>
+            <a:chExt cx="6122699" cy="4035085"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="圖表 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDC2731-0181-4356-B285-B04FD7F56449}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="7469750" y="5423727"/>
+            <a:ext cx="6097513" cy="2704762"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="19" name="群組 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12889E6-E649-4C44-B205-7ED492EF35A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="7487639" y="4093404"/>
+              <a:ext cx="6104810" cy="1311419"/>
+              <a:chOff x="7487639" y="4093404"/>
+              <a:chExt cx="6104810" cy="1311419"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="6" name="直線接點 5">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5961DF2-1E7D-4D24-8AAE-DBD260616E48}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="14" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="7487639" y="4165053"/>
+                <a:ext cx="996148" cy="1222383"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="14" name="矩形 13">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A564B40-BB2E-4A2C-9FA0-F83F4924A0C9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8483787" y="4093404"/>
+                <a:ext cx="3575918" cy="143298"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle>
+                <a:lvl1pPr marL="0" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" indent="0">
+                  <a:defRPr sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="9" name="直線接點 8">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F8F91A-0CEB-41CD-BE91-FA2FEA8DB2A9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="14" idx="3"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12059623" y="4164617"/>
+                <a:ext cx="1532826" cy="1240206"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88784</cdr:x>
+      <cdr:y>0.68394</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98212</cdr:x>
+      <cdr:y>0.84896</cdr:y>
+    </cdr:to>
+    <cdr:grpSp>
+      <cdr:nvGrpSpPr>
+        <cdr:cNvPr id="7" name="群組 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7770C8-9514-4219-B208-C8680353B076}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvGrpSpPr/>
+      </cdr:nvGrpSpPr>
+      <cdr:grpSpPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5969957" y="2473403"/>
+          <a:ext cx="633934" cy="596776"/>
+          <a:chOff x="5985263" y="2308551"/>
+          <a:chExt cx="635559" cy="241610"/>
+        </a:xfrm>
+      </cdr:grpSpPr>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="5" name="矩形 4">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183CE12B-63DD-4D4F-B053-080887BB423F}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="5985263" y="2383395"/>
+            <a:ext cx="59012" cy="24515"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:style>
+          <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </cdr:style>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+      <cdr:sp macro="" textlink="">
+        <cdr:nvSpPr>
+          <cdr:cNvPr id="6" name="文字方塊 5">
+            <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4BC327-B177-446A-B909-39C16A904DEE}"/>
+              </a:ext>
+            </a:extLst>
+          </cdr:cNvPr>
+          <cdr:cNvSpPr txBox="1"/>
+        </cdr:nvSpPr>
+        <cdr:spPr>
+          <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:off x="6068586" y="2308551"/>
+            <a:ext cx="552236" cy="241610"/>
+          </a:xfrm>
+          <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </cdr:spPr>
+        <cdr:txBody>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>lomuto</a:t>
+            </a:r>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>估計點</a:t>
+            </a:r>
+          </a:p>
+        </cdr:txBody>
+      </cdr:sp>
+    </cdr:grpSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,242 +5821,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21">
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <f>2^10</f>
+        <v>1024</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.2355000000000001E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.2969999999999999E-4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.252E-4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4.8069999999999997E-4</v>
+      </c>
+      <c r="U3" s="1">
         <v>1.429E-4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.2355000000000001E-3</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <f>B3*2</f>
+        <v>2048</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.9172E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.7609999999999998E-4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.9080000000000001E-4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.9649999999999998E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.675E-4</v>
+      </c>
+      <c r="U4" s="1">
         <v>5.0759999999999998E-4</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.9172E-3</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:B23" si="0">B4*2</f>
+        <v>4096</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.0090000000000004E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.9160000000000005E-4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>7.6539999999999996E-4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8.4840000000000002E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.9289000000000001E-3</v>
+      </c>
+      <c r="U5" s="1">
         <v>7.6289999999999995E-4</v>
       </c>
-      <c r="C4" s="1">
-        <v>4.0090000000000004E-3</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.1847999999999999E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.8722999999999999E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.6562E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0693999999999999E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.3730000000000002E-3</v>
+      </c>
+      <c r="U6" s="1">
         <v>1.9074000000000001E-3</v>
       </c>
-      <c r="C5" s="1">
-        <v>7.1847999999999999E-3</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="1:21">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.31778E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.7524000000000004E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.5190999999999998E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.8375000000000002E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.7828999999999997E-3</v>
+      </c>
+      <c r="U7" s="1">
         <v>4.7901000000000003E-3</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.31778E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="8" spans="1:21">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.6204000000000002E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.24647E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.1132000000000001E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.9931999999999998E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.8447399999999999E-2</v>
+      </c>
+      <c r="U8" s="1">
         <v>1.1402300000000001E-2</v>
       </c>
-      <c r="C7" s="1">
-        <v>2.6204000000000002E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="9" spans="1:21">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.3917E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.6442599999999999E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.2324399999999999E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3419499999999999E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.8865400000000001E-2</v>
+      </c>
+      <c r="U9" s="1">
         <v>3.3293900000000001E-2</v>
       </c>
-      <c r="C8" s="1">
-        <v>5.3917E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="10" spans="1:21">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.10524600000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.121529</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2.4629100000000001E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.6401399999999998E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.1376000000000004E-2</v>
+      </c>
+      <c r="U10" s="1">
         <v>0.108376</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.10524600000000001</v>
-      </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="11" spans="1:21">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.21016799999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.435054</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.9407600000000003E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.1148899999999997E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.172288</v>
+      </c>
+      <c r="U11" s="1">
         <v>0.39071699999999998</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.21016799999999999</v>
-      </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="12" spans="1:21">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.429091</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.61503</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.9167900000000003E-2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.10688</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.36693199999999998</v>
+      </c>
+      <c r="U12" s="1">
         <v>1.5636699999999999</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.429091</v>
-      </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="13" spans="1:21">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.89975700000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.1674499999999997</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.20045099999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.19844300000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.74336599999999997</v>
+      </c>
+      <c r="U13" s="1">
         <v>6.0623899999999997</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.89975700000000003</v>
-      </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:21">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.91465</v>
+      </c>
+      <c r="D14" s="4">
+        <v>23.806999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.41774</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.405499</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.6293599999999999</v>
+      </c>
+      <c r="U14" s="1">
         <v>23.381399999999999</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.91465</v>
-      </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="15" spans="1:21">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.8794200000000001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>94.277100000000004</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.88911499999999999</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.81850500000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3.23672</v>
+      </c>
+      <c r="U15" s="1">
         <v>111.935</v>
       </c>
-      <c r="C14" s="1">
-        <v>3.8794200000000001</v>
-      </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="16" spans="1:21">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.6566999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>375.71699999999998</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.88283</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.6917800000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>7.0998000000000001</v>
+      </c>
+      <c r="U16" s="1">
         <v>397.92500000000001</v>
       </c>
-      <c r="C15" s="1">
-        <v>7.6566999999999998</v>
-      </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="17" spans="1:21">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
+      <c r="C17" s="4">
+        <v>17.806899999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1503.2</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.8176299999999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3.5154299999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>15.2294</v>
+      </c>
+      <c r="U17" s="1">
         <v>1497.18</v>
       </c>
-      <c r="C16" s="1">
-        <v>17.806899999999999</v>
-      </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1">
+    <row r="18" spans="1:21">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
+      <c r="C18" s="4">
         <v>34.567500000000003</v>
       </c>
+      <c r="D18" s="4">
+        <v>6038.04</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.1291100000000007</v>
+      </c>
+      <c r="F18" s="4">
+        <v>7.0565100000000003</v>
+      </c>
+      <c r="G18" s="4">
+        <v>32.0047</v>
+      </c>
+      <c r="U18" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+    <row r="19" spans="1:21">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
+      <c r="C19" s="4">
         <v>72.224400000000003</v>
       </c>
+      <c r="D19" s="6">
+        <f>0.0000000004*B19^1.706</f>
+        <v>9006.3014469859245</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16.5076</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.5443</v>
+      </c>
+      <c r="G19" s="4">
+        <v>66.908600000000007</v>
+      </c>
+      <c r="U19" s="2"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
+    <row r="20" spans="1:21">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
+      <c r="C20" s="4">
         <v>147.83500000000001</v>
       </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D23" si="1">0.0000000004*B20^1.706</f>
+        <v>29383.508545900415</v>
+      </c>
+      <c r="E20" s="4">
+        <v>34.639600000000002</v>
+      </c>
+      <c r="F20" s="4">
+        <v>31.077400000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>138.69499999999999</v>
+      </c>
+      <c r="U20" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="16.5">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
+    <row r="21" spans="1:21">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
+      <c r="C21" s="4">
         <v>273.25400000000002</v>
       </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>95865.165023534413</v>
+      </c>
+      <c r="E21" s="4">
+        <v>90.554199999999994</v>
+      </c>
+      <c r="F21" s="4">
+        <v>57.368299999999998</v>
+      </c>
+      <c r="G21" s="4">
+        <v>285.327</v>
+      </c>
+      <c r="U21" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="16.5">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1">
+    <row r="22" spans="1:21">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
+      <c r="C22" s="4">
         <v>608.27</v>
       </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>312764.89159330481</v>
+      </c>
+      <c r="E22" s="4">
+        <v>218.34899999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>120.13</v>
+      </c>
+      <c r="G22" s="4">
+        <v>594.34299999999996</v>
+      </c>
+      <c r="U22" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="16.5">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
+    <row r="23" spans="1:21">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
+      <c r="C23" s="4">
         <v>1081.054545</v>
       </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>1020411.0887344347</v>
+      </c>
+      <c r="E23" s="4">
+        <v>372.66500000000002</v>
+      </c>
+      <c r="F23" s="4">
+        <v>228.428</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1222.23</v>
+      </c>
+      <c r="U23" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>